--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://talk.naver.com/ct/wcaf33?frm=ume&amp;fcs=386#nafullscreen</t>
+          <t>https://www.bellsoft.net/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -460,6 +460,50 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>페이지 노출</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://twoicefish-secu.tistory.com/242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>취약</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>페이지 노출</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://tcmssso.bu.ac.kr/svc/tk/Auth.eps?ac=Y&amp;ifa=N&amp;id=portal&amp;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>취약</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>페이지 노출</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,72 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.bellsoft.net/</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>취약</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>페이지 노출</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://twoicefish-secu.tistory.com/242</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>취약</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>페이지 노출</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://tcmssso.bu.ac.kr/svc/tk/Auth.eps?ac=Y&amp;ifa=N&amp;id=portal&amp;</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>취약</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>페이지 노출</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
